--- a/idis/expdata/10051.xlsx
+++ b/idis/expdata/10051.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272C9A6-7A1B-BF45-B415-16B2F259E207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472CB3F-9D1E-F34C-B8CF-C9C4CF47DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>*norm_c</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>h/t</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G23"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -520,24 +520,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.19500000000000001</v>
@@ -553,13 +553,13 @@
         <v>1.0848780487804881</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>3.0000000000000001E-3</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.22500000000000001</v>
@@ -598,13 +598,13 @@
         <v>1.0965853658536588</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>3.0000000000000001E-3</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.255</v>
@@ -643,13 +643,13 @@
         <v>1.1131707317073172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>4.0000000000000001E-3</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.28499999999999998</v>
@@ -688,13 +688,13 @@
         <v>1.1317073170731708</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>5.0000000000000001E-3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.315</v>
@@ -733,13 +733,13 @@
         <v>1.1258536585365855</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>5.0000000000000001E-3</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.34499999999999997</v>
@@ -778,13 +778,13 @@
         <v>1.142439024390244</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>6.0000000000000001E-3</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.375</v>
@@ -823,13 +823,13 @@
         <v>1.1482926829268294</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>8.0000000000000002E-3</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.40500000000000003</v>
@@ -868,13 +868,13 @@
         <v>1.189268292682927</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>8.9999999999999993E-3</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.435</v>
@@ -913,13 +913,13 @@
         <v>1.1765853658536587</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0.01</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.46500000000000002</v>
@@ -958,13 +958,13 @@
         <v>1.1960975609756099</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>0.01</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.495</v>
@@ -1003,13 +1003,13 @@
         <v>1.204878048780488</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.52500000000000002</v>
@@ -1048,13 +1048,13 @@
         <v>1.229268292682927</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>1.0999999999999999E-2</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.55500000000000005</v>
@@ -1093,13 +1093,13 @@
         <v>1.2360975609756097</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>1.0999999999999999E-2</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.58499999999999996</v>
@@ -1138,13 +1138,13 @@
         <v>1.2370731707317075</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>1.2E-2</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.61499999999999999</v>
@@ -1183,13 +1183,13 @@
         <v>1.2370731707317075</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>1.2999999999999999E-2</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.64500000000000002</v>
@@ -1228,13 +1228,13 @@
         <v>1.260487804878049</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>1.2999999999999999E-2</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0.67500000000000004</v>
@@ -1273,13 +1273,13 @@
         <v>1.2575609756097561</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>1.4E-2</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.70499999999999996</v>
@@ -1318,13 +1318,13 @@
         <v>1.2770731707317073</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>1.4E-2</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0.73499999999999999</v>
@@ -1363,13 +1363,13 @@
         <v>1.2702439024390246</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>1.2999999999999999E-2</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.76500000000000001</v>
@@ -1408,13 +1408,13 @@
         <v>1.2839024390243905</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>1.4E-2</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.79500000000000004</v>
@@ -1453,13 +1453,13 @@
         <v>1.2800000000000002</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>1.4999999999999999E-2</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.82499999999999996</v>
@@ -1498,13 +1498,13 @@
         <v>1.2692682926829268</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>1.7000000000000001E-2</v>

--- a/idis/expdata/10051.xlsx
+++ b/idis/expdata/10051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472CB3F-9D1E-F34C-B8CF-C9C4CF47DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25AE3F6-F8C6-6A45-BC66-BA48E71FC80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>h/t</t>
   </si>
   <si>
-    <t>syst_c</t>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
